--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CFRPG\Desktop\ppt大赛2.0\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682DFD6D-D755-4CA5-B298-BB6D0B47A86E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D7E908-35B9-4FBC-9649-01B71A8F449C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15090" activeTab="2" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>外段偏航控制的比例</t>
+    <t>外段偏航控制的比例，phi修正内外舵量差</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,6 +799,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,27 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1150,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59B82B-0FAA-4EA9-83C3-D28EDF669906}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -1169,20 +1169,20 @@
         <v>0</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="28" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="21"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12" t="s">
         <v>49</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="14"/>
@@ -1238,13 +1238,13 @@
       <c r="L3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="29"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="21"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="12" t="s">
         <v>50</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="F4" s="7">
         <v>3.3</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="14"/>
       <c r="J4" s="12" t="s">
         <v>91</v>
@@ -1266,11 +1266,11 @@
       <c r="L4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="21"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1304,7 +1304,7 @@
       <c r="G6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="28" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -1318,7 +1318,7 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="12" t="s">
         <v>43</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="G7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="28"/>
       <c r="J7" s="15" t="s">
         <v>77</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="12" t="s">
         <v>44</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
@@ -1425,15 +1425,15 @@
       <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="21" t="s">
+      <c r="K12" s="21"/>
+      <c r="L12" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
@@ -1452,10 +1452,10 @@
       <c r="L13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
@@ -1483,13 +1483,13 @@
       <c r="L14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="28" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1510,13 +1510,13 @@
       <c r="L15" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="21"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="21"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1597,11 +1597,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G3:G4"/>
@@ -1609,6 +1604,11 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B317485-1860-4B17-BF58-CD2C46D3D825}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CFRPG\Desktop\ppt大赛2.0\PPTFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D7E908-35B9-4FBC-9649-01B71A8F449C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEAA274-075E-479F-A99C-6E50915A79F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15090" activeTab="2" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="-21720" yWindow="7950" windowWidth="21840" windowHeight="13140" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
   <si>
     <t>USB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -547,6 +547,10 @@
   </si>
   <si>
     <t>外段偏航控制的比例，phi修正内外舵量差</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_IN8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,6 +803,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,18 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1150,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59B82B-0FAA-4EA9-83C3-D28EDF669906}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,20 +1173,20 @@
         <v>0</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1214,7 +1218,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="28"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="12" t="s">
         <v>49</v>
       </c>
@@ -1225,7 +1229,7 @@
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="21" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="14"/>
@@ -1238,13 +1242,13 @@
       <c r="L3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12" t="s">
         <v>50</v>
       </c>
@@ -1255,7 +1259,7 @@
       <c r="F4" s="7">
         <v>3.3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="14"/>
       <c r="J4" s="12" t="s">
         <v>91</v>
@@ -1266,11 +1270,11 @@
       <c r="L4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1292,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1304,7 +1308,7 @@
       <c r="G6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -1318,7 +1322,7 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="12" t="s">
         <v>43</v>
       </c>
@@ -1332,7 +1336,7 @@
       <c r="G7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="21"/>
       <c r="J7" s="15" t="s">
         <v>77</v>
       </c>
@@ -1344,7 +1348,7 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="12" t="s">
         <v>44</v>
       </c>
@@ -1369,7 +1373,7 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
@@ -1380,6 +1384,9 @@
       <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="G9" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="J9" s="15" t="s">
         <v>75</v>
       </c>
@@ -1425,15 +1432,15 @@
       <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="28" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
@@ -1452,10 +1459,10 @@
       <c r="L13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="29"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
@@ -1483,13 +1490,13 @@
       <c r="L14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1510,13 +1517,13 @@
       <c r="L15" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="28"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +1538,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="28"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1546,7 +1553,7 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="28"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1597,6 +1604,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G3:G4"/>
@@ -1604,11 +1616,6 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B317485-1860-4B17-BF58-CD2C46D3D825}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CFRPG\Desktop\ppt大赛2.0\PPTFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D7E908-35B9-4FBC-9649-01B71A8F449C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52631843-142B-498A-A4A9-3CAF08B5FAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15090" activeTab="2" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="-21720" yWindow="8160" windowWidth="21840" windowHeight="13140" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="145">
   <si>
     <t>USB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -282,26 +282,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>左侧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>右侧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内侧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外侧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准电位器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[3:4]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -410,62 +390,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>phi_p</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铰链转角的P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右舵机反向，个位左，十位右，1反向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FIXED5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>yaw_p</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏航混控的P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>副翼混控比例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>elev</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降混控比例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>phi_i</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铰链转角的I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>phi_d</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铰链转角的D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>起始</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -526,27 +454,139 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FIXED5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>phi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铰链控制输出混控比例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BINARY</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>yaw_scale</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外段偏航控制的比例，phi修正内外舵量差</t>
+    <t>电流跟随</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率跟随</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波形开启</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波形关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>curr_off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwr_p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwr_i</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwr_d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwr_i_max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>curr_max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>curr_gain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volt_gain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率控制P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率控制I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率控制D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分器I最大值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>振荡器幅值（%）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流偏移（A）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>满输入时的电流（A）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>满输入时的功率（W）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>振荡器频率（Hz）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流增益（A/V）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压增益（V/V）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIXED4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIXED3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIXED4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_IN8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,6 +839,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,18 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1150,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59B82B-0FAA-4EA9-83C3-D28EDF669906}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,20 +1209,20 @@
         <v>0</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="J1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="J1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1214,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="28"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="12" t="s">
         <v>49</v>
       </c>
@@ -1225,26 +1265,26 @@
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="21" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="14"/>
       <c r="J3" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="25"/>
+        <v>114</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12" t="s">
         <v>50</v>
       </c>
@@ -1255,22 +1295,22 @@
       <c r="F4" s="7">
         <v>3.3</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="14"/>
       <c r="J4" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
+        <v>115</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1328,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1304,21 +1344,21 @@
       <c r="G6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="12" t="s">
         <v>43</v>
       </c>
@@ -1332,19 +1372,19 @@
       <c r="G7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="21"/>
       <c r="J7" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="12" t="s">
         <v>44</v>
       </c>
@@ -1362,14 +1402,17 @@
         <v>62</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
@@ -1380,11 +1423,11 @@
       <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="G9" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="J9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -1399,10 +1442,10 @@
         <v>16</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -1425,15 +1468,15 @@
       <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="J12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
@@ -1444,18 +1487,18 @@
         <v>22</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
@@ -1475,21 +1518,21 @@
         <v>48</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1508,15 +1551,15 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
       <c r="L15" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="N15" s="31"/>
+        <v>83</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="28"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +1574,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="28"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1546,7 +1589,7 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="28"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1576,7 +1619,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -1597,6 +1640,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G3:G4"/>
@@ -1604,11 +1652,6 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1632,58 +1675,58 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1694,155 +1737,237 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B317485-1860-4B17-BF58-CD2C46D3D825}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="3" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>133</v>
       </c>
-      <c r="D10" t="s">
-        <v>134</v>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13">
+        <v>5.7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B2EEB4-3BF0-4829-AA39-78ED0A53B346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563A6538-B22E-4B7F-B456-5ECFAB8DD393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="8160" windowWidth="21840" windowHeight="13140" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="-21720" yWindow="8160" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>TIM4_CH1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -464,6 +464,34 @@
   </si>
   <si>
     <t>BOOT0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpg_am</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppm_enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用PPM输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaw_scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor_freq_max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入偏航量的增益，严格小于1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机转速能达到的最大角频率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -663,44 +691,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1020,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59B82B-0FAA-4EA9-83C3-D28EDF669906}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,16 +1092,16 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1081,16 +1109,16 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1098,16 +1126,16 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1115,16 +1143,16 @@
       <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1132,16 +1160,16 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1149,16 +1177,16 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1172,10 +1200,10 @@
       <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="3"/>
@@ -1190,10 +1218,10 @@
       <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="9" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="3"/>
@@ -1209,10 +1237,10 @@
       <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="3"/>
@@ -1228,10 +1256,10 @@
       <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1242,15 +1270,15 @@
       <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="19" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1262,20 +1290,20 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="4"/>
@@ -1288,13 +1316,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="4"/>
@@ -1307,13 +1335,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="4"/>
@@ -1323,55 +1351,55 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="9" t="s">
         <v>78</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1383,10 +1411,10 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1400,10 +1428,10 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1417,10 +1445,10 @@
       <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1434,10 +1462,10 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1453,56 +1481,56 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1542,10 +1570,10 @@
       <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1556,10 +1584,10 @@
       <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1576,10 +1604,10 @@
       <c r="D34" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1596,46 +1624,46 @@
       <c r="D35" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="19">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="K3:L4"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1721,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B317485-1860-4B17-BF58-CD2C46D3D825}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1897,6 +1925,71 @@
         <v>43</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563A6538-B22E-4B7F-B456-5ECFAB8DD393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717F69A-F9AC-4A85-95DA-8A478FB631D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="8160" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
   <si>
     <t>TIM4_CH1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -492,6 +492,18 @@
   </si>
   <si>
     <t>电机转速能达到的最大角频率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rstp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置所有参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1675,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3536F7-88C1-4A4C-BD62-0006F08D8DED}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1740,19 +1752,26 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B317485-1860-4B17-BF58-CD2C46D3D825}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1990,6 +2009,20 @@
         <v>110</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717F69A-F9AC-4A85-95DA-8A478FB631D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C12E5-073B-4EEC-BC84-BCCF7051D497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="128">
   <si>
     <t>TIM4_CH1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -504,6 +504,46 @@
   </si>
   <si>
     <t>重置所有参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPM输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Hz闪烁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出频率50-100Hz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Hz闪烁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出频率101-250Hz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Hz闪烁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出频率251-400Hz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1060,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59B82B-0FAA-4EA9-83C3-D28EDF669906}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,8 +1339,12 @@
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -1318,8 +1362,12 @@
       <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1337,8 +1385,12 @@
       <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -1356,8 +1408,12 @@
       <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1372,8 +1428,12 @@
       <c r="F17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
@@ -1687,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3536F7-88C1-4A4C-BD62-0006F08D8DED}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C12E5-073B-4EEC-BC84-BCCF7051D497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4B375-2747-4383-B567-D0375BD6A55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t>TIM4_CH1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -544,6 +544,18 @@
   </si>
   <si>
     <t>输出频率251-400Hz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BINARY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_rev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转输入通道，从低位起第i位为1表示翻转第i个通道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59B82B-0FAA-4EA9-83C3-D28EDF669906}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1828,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B317485-1860-4B17-BF58-CD2C46D3D825}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2083,6 +2095,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4B375-2747-4383-B567-D0375BD6A55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C865A-D1E2-4509-8396-10708ADD5908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
@@ -511,18 +511,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PWM输入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>红色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PPM输入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4Hz闪烁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -556,6 +548,14 @@
   </si>
   <si>
     <t>反转输入通道，从低位起第i位为1表示翻转第i个通道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平飞模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬停模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59B82B-0FAA-4EA9-83C3-D28EDF669906}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1355,7 @@
         <v>118</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="20"/>
@@ -1375,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="10"/>
@@ -1398,10 +1398,10 @@
         <v>3</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="11"/>
@@ -1421,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
         <v>78</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1842,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B317485-1860-4B17-BF58-CD2C46D3D825}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2100,16 +2100,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/自研飞控.xlsx
+++ b/自研飞控.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PPTFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PPTFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C865A-D1E2-4509-8396-10708ADD5908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5F2651-832F-4FF3-9A1A-4C63B1816F38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{827C1629-CCAE-46AC-8959-6DB6873A2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件" sheetId="1" r:id="rId1"/>
     <sheet name="通信" sheetId="3" r:id="rId2"/>
     <sheet name="参数" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>TIM4_CH1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,63 +137,351 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>scale_ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FIXED4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>man_adv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了实现机动需要增加的额外扑动幅度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>freq_min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>freq_max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小扑动频率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大扑动频率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>am_max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械限位设定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FIXED3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bias_max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>频率震荡相对于其他过程震荡的倍数</t>
+    <t>Pin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC_IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC_OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSSA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0-WK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2_CH1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_OUT1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2_CH2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_OUT2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2_CH3/USART2_TX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_OUT3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2_CH4/USART2_RX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_OUT4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOT1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_IN1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1_CH2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_IN2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1_CH3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_IN3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1_CH4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_IN4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDIO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWCLK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTDO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNTRST/PB4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_IN5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_IN6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART_TX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART_RX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOT0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppm_enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用PPM输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rstp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置所有参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Hz闪烁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出频率50-100Hz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Hz闪烁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出频率101-250Hz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Hz闪烁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出频率251-400Hz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BINARY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_rev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转输入通道，从低位起第i位为1表示翻转第i个通道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平飞模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬停模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thro_min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thro_homing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -207,355 +489,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分周期的死区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VDD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSC_IN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSC_OUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NRST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VSSA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VDDA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA0-WK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM2_CH1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_OUT1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM2_CH2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_OUT2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM2_CH3/USART2_TX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_OUT3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM2_CH4/USART2_RX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_OUT4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3_CH1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3_CH2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3_CH3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3_CH4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOT1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VSS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_IN1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1_CH2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_IN2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1_CH3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_IN3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1_CH4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_IN4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWDIO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWCLK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTDI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTDO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNTRST/PB4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_IN5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_IN6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART_TX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_RX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART_RX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOT0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpg_am</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppm_enabled</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用PPM输入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yaw_scale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>motor_freq_max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入偏航量的增益，严格小于1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机转速能达到的最大角频率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rstp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置所有参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4Hz闪烁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出频率50-100Hz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2Hz闪烁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出频率101-250Hz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1Hz闪烁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出频率251-400Hz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BINARY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_rev</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转输入通道，从低位起第i位为1表示翻转第i个通道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平飞模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬停模式</t>
+    <t>滚转的死区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll_delay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll_step_val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll_span</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1112,38 +1058,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59B82B-0FAA-4EA9-83C3-D28EDF669906}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="9" max="9" width="9.86328125" customWidth="1"/>
     <col min="14" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
@@ -1155,12 +1101,12 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1172,12 +1118,12 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1189,12 +1135,12 @@
       <c r="K3" s="15"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1206,12 +1152,12 @@
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1223,12 +1169,12 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1240,12 +1186,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1257,36 +1203,36 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
@@ -1294,18 +1240,18 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
@@ -1313,26 +1259,26 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>3</v>
@@ -1344,395 +1290,395 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
         <v>46</v>
       </c>
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1763,13 +1709,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="30.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1786,7 +1732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1825,10 +1771,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1842,17 +1788,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B317485-1860-4B17-BF58-CD2C46D3D825}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="4" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="14.46484375" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1863,13 +1809,13 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1886,185 +1832,134 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D4">
-        <v>0.35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="D7">
-        <v>150</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10">
-        <v>0.05</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12">
-        <v>0.8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2072,16 +1967,16 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2089,27 +1984,27 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
